--- a/processed data/PPHS Summary (December 2024).xlsx
+++ b/processed data/PPHS Summary (December 2024).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeelongsiah/Desktop/Personal/PythonLearning/PPHS/processed data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40523F42-C16C-794C-B4E9-67E7B0FBC8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -349,8 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,13 +419,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +471,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -491,6 +505,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -525,9 +540,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,14 +716,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="138" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -771,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -803,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -835,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -867,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -899,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -931,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -963,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -995,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1187,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1347,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1443,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1699,7 +1729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1763,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1795,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1827,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1859,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1891,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +1953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +1985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1987,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2019,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2051,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2083,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2115,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2211,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2243,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2275,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -2307,7 +2337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -2339,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -2371,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -2403,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
